--- a/phase2_final results/Results comparison.xlsx
+++ b/phase2_final results/Results comparison.xlsx
@@ -137,10 +137,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -166,6 +167,13 @@
       <b val="true"/>
       <u val="single"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -209,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -222,6 +230,41 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -250,7 +293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -288,6 +331,50 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,7 +458,7 @@
   <dimension ref="B1:S30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+      <selection pane="topLeft" activeCell="N16" activeCellId="0" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -567,9 +654,18 @@
       <c r="H8" s="9" t="n">
         <v>4.95927009404431</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="J8" s="10" t="n">
         <v>2021</v>
       </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
@@ -593,25 +689,25 @@
       <c r="H9" s="9" t="n">
         <v>1.71152922088714</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="M9" s="1" t="s">
+      <c r="K9" s="11"/>
+      <c r="M9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="3" t="s">
+      <c r="O9" s="13"/>
+      <c r="P9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="4" t="s">
+      <c r="Q9" s="14"/>
+      <c r="R9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="4"/>
+      <c r="S9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
@@ -635,31 +731,31 @@
       <c r="H10" s="9" t="n">
         <v>4.03134413028512</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -685,13 +781,13 @@
       <c r="H11" s="9" t="n">
         <v>4.95927009404431</v>
       </c>
-      <c r="J11" s="9" t="n">
+      <c r="J11" s="17" t="n">
         <v>22.5553172703011</v>
       </c>
-      <c r="K11" s="9" t="n">
+      <c r="K11" s="17" t="n">
         <v>22.5553172703011</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="N11" s="0" t="n">
@@ -709,7 +805,7 @@
       <c r="R11" s="0" t="n">
         <v>35.3765087735907</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="S11" s="18" t="n">
         <f aca="false">100*0.372026181430042</f>
         <v>37.2026181430042</v>
       </c>
@@ -736,13 +832,13 @@
       <c r="H12" s="9" t="n">
         <v>1.24756623900754</v>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J12" s="17" t="n">
         <v>15.5280576798451</v>
       </c>
-      <c r="K12" s="9" t="n">
+      <c r="K12" s="17" t="n">
         <v>9.32605066517692</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N12" s="0" t="n">
@@ -760,7 +856,7 @@
       <c r="R12" s="0" t="n">
         <v>14.4482579616892</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="S12" s="18" t="n">
         <f aca="false">100*0.0814514710258975</f>
         <v>8.14514710258975</v>
       </c>
@@ -787,31 +883,32 @@
       <c r="H13" s="9" t="n">
         <v>2.63945518464633</v>
       </c>
-      <c r="J13" s="9" t="n">
+      <c r="J13" s="17" t="n">
         <v>1.22200198257445</v>
       </c>
-      <c r="K13" s="9" t="n">
+      <c r="K13" s="17" t="n">
         <v>2.03465732189877</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="L13" s="19"/>
+      <c r="M13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="19" t="n">
         <v>1.93002950749922</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13" s="19" t="n">
         <v>3.48292618745115</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="19" t="n">
         <v>1.71467053131846</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13" s="19" t="n">
         <v>2.9498752386706</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="R13" s="19" t="n">
         <v>2.20071574427185</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="S13" s="20" t="n">
         <v>4.12793258605654</v>
       </c>
     </row>
@@ -1207,11 +1304,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J8:S8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="P9:Q9"/>
